--- a/data/trans_orig/P70C2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>91991</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77318</v>
+        <v>74517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108059</v>
+        <v>106378</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5225434411332259</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4391960671888861</v>
+        <v>0.4232883486211717</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6138169837331002</v>
+        <v>0.6042685322662136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -762,19 +762,19 @@
         <v>75545</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63046</v>
+        <v>64577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88610</v>
+        <v>89298</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.440502890391767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3676214458092048</v>
+        <v>0.3765478480441256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5166843184102969</v>
+        <v>0.5206945714720954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>160</v>
@@ -783,19 +783,19 @@
         <v>167536</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>148140</v>
+        <v>147967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>187268</v>
+        <v>187202</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4820597930491714</v>
+        <v>0.4820597930491713</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.426253175691019</v>
+        <v>0.4257533431025794</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5388359980796916</v>
+        <v>0.5386467009080922</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>39292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27989</v>
+        <v>28957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53623</v>
+        <v>53589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2231957185172519</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1589912338784449</v>
+        <v>0.1644852495230531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3046025424979572</v>
+        <v>0.3044092341241535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -833,19 +833,19 @@
         <v>35598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26751</v>
+        <v>26525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46524</v>
+        <v>47200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2075704343952547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1559825492447204</v>
+        <v>0.1546693223190539</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2712795882966751</v>
+        <v>0.2752247586072643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -854,19 +854,19 @@
         <v>74890</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59360</v>
+        <v>58598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90626</v>
+        <v>90569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2154852814481278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.170799965400232</v>
+        <v>0.1686079757940995</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.260763818650356</v>
+        <v>0.2606006294986593</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>15262</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9304</v>
+        <v>8378</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25523</v>
+        <v>24056</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08669554992720344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05284977255111065</v>
+        <v>0.04758796184245735</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1449780926292956</v>
+        <v>0.1366489061463369</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -904,19 +904,19 @@
         <v>20031</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13401</v>
+        <v>12750</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29051</v>
+        <v>28964</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1168011382651445</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0781433516030437</v>
+        <v>0.07434784384950173</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1693975517445992</v>
+        <v>0.1688908785990485</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -925,19 +925,19 @@
         <v>35293</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25596</v>
+        <v>25461</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47774</v>
+        <v>48289</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1015514234266083</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07365022338037386</v>
+        <v>0.07325924823897553</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1374623519650442</v>
+        <v>0.1389455569921088</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13717</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7442</v>
+        <v>7622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22322</v>
+        <v>22906</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07791541569219035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04227261350150772</v>
+        <v>0.04329331919228588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1267997203495094</v>
+        <v>0.1301127274368855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -975,19 +975,19 @@
         <v>14400</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8145</v>
+        <v>8683</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22256</v>
+        <v>22372</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08396814959874427</v>
+        <v>0.08396814959874425</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04749634006786767</v>
+        <v>0.0506332627030226</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1297733793100568</v>
+        <v>0.1304505962700581</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -996,19 +996,19 @@
         <v>28117</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19318</v>
+        <v>19197</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40796</v>
+        <v>39543</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08090219170971803</v>
+        <v>0.08090219170971802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05558571528631896</v>
+        <v>0.05523784617274197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1173846485517795</v>
+        <v>0.1137796086661483</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>5066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1811</v>
+        <v>1720</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11331</v>
+        <v>11099</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02877471309200652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01028875785035352</v>
+        <v>0.009767723585755317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06436483016865539</v>
+        <v>0.06304494988375675</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -1046,19 +1046,19 @@
         <v>16443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10395</v>
+        <v>10303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24325</v>
+        <v>25383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09587687621081543</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06061300725656976</v>
+        <v>0.06007444256960411</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1418380134592035</v>
+        <v>0.1480092383322841</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1067,19 +1067,19 @@
         <v>21508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14130</v>
+        <v>14055</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30979</v>
+        <v>30196</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06188687936623764</v>
+        <v>0.06188687936623762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04065768166691322</v>
+        <v>0.04044165452523062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08913734448514744</v>
+        <v>0.08688592873044532</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>10717</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4791</v>
+        <v>5169</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21338</v>
+        <v>20674</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06087516163812172</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02721489298477109</v>
+        <v>0.02936330862854055</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.121209163634354</v>
+        <v>0.1174379388281935</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1117,19 +1117,19 @@
         <v>9480</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5037</v>
+        <v>4997</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16031</v>
+        <v>17210</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05528051113827426</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02936915507827232</v>
+        <v>0.02913511717334081</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09347668363623472</v>
+        <v>0.1003503203106146</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -1138,19 +1138,19 @@
         <v>20197</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12428</v>
+        <v>12228</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31198</v>
+        <v>30657</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05811443100013678</v>
+        <v>0.05811443100013677</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03576103634016224</v>
+        <v>0.03518319877741231</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08976775156644118</v>
+        <v>0.08820989516133265</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>199983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175805</v>
+        <v>175748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>227166</v>
+        <v>225967</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3952303923399798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3474478231349001</v>
+        <v>0.3473339557219222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4489531875327541</v>
+        <v>0.4465833154812991</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>198</v>
@@ -1263,19 +1263,19 @@
         <v>155290</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>137144</v>
+        <v>138415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>170821</v>
+        <v>173491</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4326232790376979</v>
+        <v>0.432623279037698</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3820714334016629</v>
+        <v>0.3856106314727972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4758908082594878</v>
+        <v>0.483331648949561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>361</v>
@@ -1284,19 +1284,19 @@
         <v>355272</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>326081</v>
+        <v>326046</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>386124</v>
+        <v>387968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4107484030976823</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3769995663445848</v>
+        <v>0.3769586876804488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4464179358976965</v>
+        <v>0.4485499613503824</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>107177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88367</v>
+        <v>87879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129815</v>
+        <v>129010</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2118167942685466</v>
+        <v>0.2118167942685465</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1746409385848124</v>
+        <v>0.1736780773809493</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2565573989035246</v>
+        <v>0.2549664440246933</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>89</v>
@@ -1334,19 +1334,19 @@
         <v>71516</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58249</v>
+        <v>57212</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86364</v>
+        <v>85487</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1992380367716648</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1622753300344166</v>
+        <v>0.1593873861955114</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.240601569685775</v>
+        <v>0.2381605184710392</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -1355,19 +1355,19 @@
         <v>178693</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156972</v>
+        <v>156233</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>205048</v>
+        <v>205786</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2065966224285625</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1814837772882529</v>
+        <v>0.1806290014126773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2370672057617657</v>
+        <v>0.2379204122154292</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>68428</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50255</v>
+        <v>51415</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91163</v>
+        <v>90147</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1352358256343926</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09932075268432988</v>
+        <v>0.1016124056172305</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1801679427704254</v>
+        <v>0.1781593909469703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1405,19 +1405,19 @@
         <v>38220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28528</v>
+        <v>28125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49246</v>
+        <v>49585</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1064767824119143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07947695701901536</v>
+        <v>0.07835489053948178</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1371947812634477</v>
+        <v>0.1381382170435447</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -1426,19 +1426,19 @@
         <v>106648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87521</v>
+        <v>85065</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130333</v>
+        <v>129439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1233008513245625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1011876349060771</v>
+        <v>0.09834838189428929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1506842227782549</v>
+        <v>0.1496510333529653</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>82302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62691</v>
+        <v>63191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102680</v>
+        <v>102853</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.162655274772186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1238973712415386</v>
+        <v>0.1248853155444389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2029295269056041</v>
+        <v>0.2032710139987168</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -1476,19 +1476,19 @@
         <v>56361</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44209</v>
+        <v>45160</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69276</v>
+        <v>69255</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1570175727396762</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1231620647241704</v>
+        <v>0.1258120541335802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1929961917619903</v>
+        <v>0.192938215629867</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1497,19 +1497,19 @@
         <v>138663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118026</v>
+        <v>114760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164750</v>
+        <v>163826</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1603156340406094</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1364555861496716</v>
+        <v>0.1326799060695896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1904762728975965</v>
+        <v>0.1894076311025225</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>32324</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22224</v>
+        <v>22740</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45286</v>
+        <v>45503</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06388272302020756</v>
+        <v>0.06388272302020755</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04392172062001749</v>
+        <v>0.04494218090395908</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08949903918961419</v>
+        <v>0.0899294816564299</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -1547,19 +1547,19 @@
         <v>26479</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18626</v>
+        <v>18609</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36421</v>
+        <v>35901</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07376743767787226</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05189022100253528</v>
+        <v>0.05184219939881405</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1014644492906375</v>
+        <v>0.1000176201654382</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>66</v>
@@ -1568,19 +1568,19 @@
         <v>58803</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46329</v>
+        <v>44729</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>74957</v>
+        <v>73327</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.06798486976363674</v>
+        <v>0.06798486976363675</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05356380261829842</v>
+        <v>0.05171371246934881</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08666125102027543</v>
+        <v>0.08477684324966728</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>15776</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9327</v>
+        <v>8976</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25348</v>
+        <v>27201</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0311789899646875</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01843286014407545</v>
+        <v>0.01773952672176647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05009566838465342</v>
+        <v>0.0537589518814512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1618,19 +1618,19 @@
         <v>11083</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6380</v>
+        <v>6299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18680</v>
+        <v>17770</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03087689136117439</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0177750315457751</v>
+        <v>0.01754787147180775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05204107157159852</v>
+        <v>0.04950620409238643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1639,19 +1639,19 @@
         <v>26859</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17650</v>
+        <v>17970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39124</v>
+        <v>37672</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03105361934494635</v>
+        <v>0.03105361934494636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02040625759908704</v>
+        <v>0.02077638097964629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04523332578418905</v>
+        <v>0.04355408583905906</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>348806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>323182</v>
+        <v>320312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>374884</v>
+        <v>374502</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.556137121629622</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5152826336461241</v>
+        <v>0.5107059474750246</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5977167703190449</v>
+        <v>0.5971077979022386</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>356</v>
@@ -1764,19 +1764,19 @@
         <v>264337</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>245606</v>
+        <v>244082</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>284837</v>
+        <v>284734</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5420934045301968</v>
+        <v>0.5420934045301967</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5036797927645141</v>
+        <v>0.5005541789111579</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5841342850218288</v>
+        <v>0.5839218064050673</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>657</v>
@@ -1785,19 +1785,19 @@
         <v>613143</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>583631</v>
+        <v>578914</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>649255</v>
+        <v>646979</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5499943749198292</v>
+        <v>0.5499943749198293</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5235220042635579</v>
+        <v>0.5192909666766711</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5823873786090422</v>
+        <v>0.5803455793566265</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>137903</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>117065</v>
+        <v>117024</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>159663</v>
+        <v>161739</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.219872343733051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1866484381089963</v>
+        <v>0.1865828955153898</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2545668282322581</v>
+        <v>0.257876489295087</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>159</v>
@@ -1835,19 +1835,19 @@
         <v>109792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94694</v>
+        <v>95244</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127474</v>
+        <v>125721</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2251577090648091</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1941945402761484</v>
+        <v>0.1953229468094025</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2614199002217504</v>
+        <v>0.2578243702162742</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -1856,19 +1856,19 @@
         <v>247694</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>220427</v>
+        <v>220266</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>274704</v>
+        <v>275965</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2221841718816712</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1977247438306411</v>
+        <v>0.1975810055032881</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2464122834804293</v>
+        <v>0.247543086584734</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>36019</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25472</v>
+        <v>25524</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49669</v>
+        <v>49544</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05742875842548276</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04061250600487391</v>
+        <v>0.04069625581594388</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07919306284223804</v>
+        <v>0.07899369662521283</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -1906,19 +1906,19 @@
         <v>38409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29320</v>
+        <v>29261</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49783</v>
+        <v>49417</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07876797312449521</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06012895759666697</v>
+        <v>0.06000703676617481</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1020935152840183</v>
+        <v>0.1013431648995085</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -1927,19 +1927,19 @@
         <v>74428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60161</v>
+        <v>61308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90933</v>
+        <v>90950</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06676256869479416</v>
+        <v>0.06676256869479417</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05396498331690926</v>
+        <v>0.05499397867995112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08156815809971871</v>
+        <v>0.08158320819815729</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>50979</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37142</v>
+        <v>37051</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>66320</v>
+        <v>67163</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08128046636601156</v>
+        <v>0.08128046636601158</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05921855128525537</v>
+        <v>0.05907473618292595</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1057414349402548</v>
+        <v>0.1070841298227374</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>52</v>
@@ -1977,19 +1977,19 @@
         <v>36884</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>27917</v>
+        <v>27866</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>48760</v>
+        <v>47601</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.07563996102646098</v>
+        <v>0.07563996102646101</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05725167339135603</v>
+        <v>0.0571475459583297</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09999551360074653</v>
+        <v>0.09761815574981889</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>100</v>
@@ -1998,19 +1998,19 @@
         <v>87862</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>72029</v>
+        <v>71273</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>106418</v>
+        <v>106337</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.078813299349559</v>
+        <v>0.07881329934955901</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.064610649945104</v>
+        <v>0.06393230203772018</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09545816598217483</v>
+        <v>0.09538562495918555</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>39432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26628</v>
+        <v>26028</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57497</v>
+        <v>56364</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06287054413540014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04245597725730669</v>
+        <v>0.04149857417762701</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09167381882033188</v>
+        <v>0.08986753560843824</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2048,19 +2048,19 @@
         <v>32038</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23230</v>
+        <v>23174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47278</v>
+        <v>46641</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06570170832638433</v>
+        <v>0.06570170832638435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04763993908178311</v>
+        <v>0.0475244071338257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0969556644012559</v>
+        <v>0.09565054253599906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -2069,19 +2069,19 @@
         <v>71470</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54577</v>
+        <v>55958</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91276</v>
+        <v>93258</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06410890036231123</v>
+        <v>0.06410890036231125</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04895618631052592</v>
+        <v>0.05019458044268049</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08187527324623002</v>
+        <v>0.08365289187203891</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>14056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7827</v>
+        <v>7759</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25065</v>
+        <v>24588</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02241076571043249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01247973535246186</v>
+        <v>0.01237094807840965</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03996424137530299</v>
+        <v>0.03920251677600757</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2119,19 +2119,19 @@
         <v>6163</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3080</v>
+        <v>3243</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11595</v>
+        <v>12216</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01263924392765362</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006316763455210956</v>
+        <v>0.006650458604218894</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02377836917093235</v>
+        <v>0.02505280159348404</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2140,19 +2140,19 @@
         <v>20219</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12494</v>
+        <v>12591</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30266</v>
+        <v>31450</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01813668479183512</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01120711854885054</v>
+        <v>0.011294333262909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02714890186431565</v>
+        <v>0.028210584367934</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>316112</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>291216</v>
+        <v>289934</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>342606</v>
+        <v>343684</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5344082534212646</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4923202143843033</v>
+        <v>0.490152538559939</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5791984695741181</v>
+        <v>0.5810198454272537</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>304</v>
@@ -2265,19 +2265,19 @@
         <v>240589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>222267</v>
+        <v>220470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>261699</v>
+        <v>261471</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5156401042755721</v>
+        <v>0.5156401042755719</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4763700804602827</v>
+        <v>0.4725200314907865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5608829098209389</v>
+        <v>0.5603943125801092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>573</v>
@@ -2286,19 +2286,19 @@
         <v>556702</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>524820</v>
+        <v>525372</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>590508</v>
+        <v>587802</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5261321917040847</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4960010313966343</v>
+        <v>0.4965232170809474</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5580821754926524</v>
+        <v>0.555525151961568</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>160015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>137248</v>
+        <v>139277</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>183116</v>
+        <v>185768</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2705166088513266</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2320266725558487</v>
+        <v>0.2354562417414702</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3095692503631453</v>
+        <v>0.3140527383960564</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>219</v>
@@ -2336,19 +2336,19 @@
         <v>130808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>114023</v>
+        <v>114858</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>147596</v>
+        <v>147337</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2803524676980394</v>
+        <v>0.2803524676980393</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2443781396959522</v>
+        <v>0.2461676045063224</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3163332389661637</v>
+        <v>0.3157791391633287</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>378</v>
@@ -2357,19 +2357,19 @@
         <v>290823</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>261592</v>
+        <v>263044</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>322886</v>
+        <v>317896</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2748538599156143</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2472274861197594</v>
+        <v>0.2486001398145223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3051560757515698</v>
+        <v>0.3004396547220555</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>42777</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>29749</v>
+        <v>30253</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60941</v>
+        <v>60147</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07231767841455224</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0502927699261321</v>
+        <v>0.05114426451914266</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1030249656471609</v>
+        <v>0.1016828116667618</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>40</v>
@@ -2407,19 +2407,19 @@
         <v>28353</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20354</v>
+        <v>20766</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>38380</v>
+        <v>38438</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.06076819093177639</v>
+        <v>0.06076819093177638</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04362328732229954</v>
+        <v>0.04450690569379546</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08225807109950009</v>
+        <v>0.08238268620568326</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>76</v>
@@ -2428,19 +2428,19 @@
         <v>71131</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>55326</v>
+        <v>55625</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>90807</v>
+        <v>89941</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0672247803100427</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05228824119427288</v>
+        <v>0.05257099708173443</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08582084894973954</v>
+        <v>0.08500249383900009</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>32341</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20293</v>
+        <v>21520</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46596</v>
+        <v>47012</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05467462300974996</v>
+        <v>0.05467462300974997</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03430657925860509</v>
+        <v>0.03638142962680802</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07877350208291312</v>
+        <v>0.07947628254853087</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -2478,19 +2478,19 @@
         <v>27146</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19151</v>
+        <v>19730</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36360</v>
+        <v>37963</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05818053378250271</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04104517696053925</v>
+        <v>0.04228665772832248</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07792724238575588</v>
+        <v>0.08136385850406629</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>64</v>
@@ -2499,19 +2499,19 @@
         <v>59487</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>45422</v>
+        <v>44254</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>75178</v>
+        <v>76062</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05622060038370359</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04292750510183949</v>
+        <v>0.041823802177428</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0710496969857726</v>
+        <v>0.07188535440846287</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>22074</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14113</v>
+        <v>13545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36167</v>
+        <v>33943</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03731787028511469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02385927188873378</v>
+        <v>0.02289858919819172</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.061143147599531</v>
+        <v>0.05738228780986379</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -2549,19 +2549,19 @@
         <v>28303</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19482</v>
+        <v>19925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39933</v>
+        <v>40045</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06065925049458266</v>
+        <v>0.06065925049458265</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0417549845014477</v>
+        <v>0.04270479933520738</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08558489644866667</v>
+        <v>0.08582640238520049</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>53</v>
@@ -2570,19 +2570,19 @@
         <v>50377</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>37235</v>
+        <v>37229</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>65700</v>
+        <v>66237</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04761055826825843</v>
+        <v>0.04761055826825844</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03518990098715252</v>
+        <v>0.03518484660776298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06209240739441865</v>
+        <v>0.06259961477054347</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>18198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10594</v>
+        <v>10295</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30347</v>
+        <v>31516</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03076496601799193</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01790996008054637</v>
+        <v>0.01740457655006675</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0513044124782308</v>
+        <v>0.05328033956247449</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -2620,19 +2620,19 @@
         <v>11384</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6629</v>
+        <v>6576</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19419</v>
+        <v>18728</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02439945281752694</v>
+        <v>0.02439945281752695</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01420829685040561</v>
+        <v>0.01409388398768291</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04162002418717012</v>
+        <v>0.04013751197299768</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>27</v>
@@ -2641,19 +2641,19 @@
         <v>29582</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19209</v>
+        <v>20042</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42335</v>
+        <v>45098</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0279580094182964</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0181544268006941</v>
+        <v>0.01894181966678007</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04001009927433538</v>
+        <v>0.04262136558863504</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>956891</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>909377</v>
+        <v>908703</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1010276</v>
+        <v>1003687</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.503429298669152</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4784319953998966</v>
+        <v>0.4780775397724003</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5315156315857726</v>
+        <v>0.5280493050343585</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>948</v>
@@ -2766,19 +2766,19 @@
         <v>735761</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>701789</v>
+        <v>700432</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>768674</v>
+        <v>772176</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4955779097802633</v>
+        <v>0.4955779097802634</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4726954642335565</v>
+        <v>0.4717818727578205</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5177462810889388</v>
+        <v>0.5201053663108277</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1751</v>
@@ -2787,19 +2787,19 @@
         <v>1692652</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1634375</v>
+        <v>1631866</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1748769</v>
+        <v>1753895</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4999861039374774</v>
+        <v>0.4999861039374773</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4827718435938874</v>
+        <v>0.4820306498764351</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5165622716126813</v>
+        <v>0.5180764773556811</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>444387</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>406270</v>
+        <v>406405</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>488184</v>
+        <v>490235</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2337963703032575</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2137425175148956</v>
+        <v>0.2138134580610818</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2568384128500462</v>
+        <v>0.2579171549806341</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>511</v>
@@ -2837,19 +2837,19 @@
         <v>347714</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>321499</v>
+        <v>321409</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>379203</v>
+        <v>376616</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2342056082451082</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2165483180208002</v>
+        <v>0.2164875056332005</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2554154395906092</v>
+        <v>0.2536730535027086</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>923</v>
@@ -2858,19 +2858,19 @@
         <v>792101</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>747023</v>
+        <v>746662</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>841798</v>
+        <v>843121</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2339758399417282</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2206603785052746</v>
+        <v>0.2205536862174472</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2486554393186884</v>
+        <v>0.2490464549964548</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>162486</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>136837</v>
+        <v>135097</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>191885</v>
+        <v>190814</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.08548558936273697</v>
+        <v>0.08548558936273695</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07199113659397779</v>
+        <v>0.07107600048871784</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1009522937863216</v>
+        <v>0.1003888655093909</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>172</v>
@@ -2908,19 +2908,19 @@
         <v>125013</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>106028</v>
+        <v>106327</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>144975</v>
+        <v>142988</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08420373615668103</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07141614371515488</v>
+        <v>0.07161756748699395</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09764911495991696</v>
+        <v>0.09631073278299512</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>310</v>
@@ -2929,19 +2929,19 @@
         <v>287500</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>254200</v>
+        <v>255869</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>319315</v>
+        <v>322987</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08492343784173433</v>
+        <v>0.08492343784173428</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07508730281388071</v>
+        <v>0.07558004606789921</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09432115346674995</v>
+        <v>0.09540586318988771</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>179338</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>153866</v>
+        <v>151402</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>209568</v>
+        <v>210375</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.09435144004296185</v>
+        <v>0.09435144004296188</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08095039467972154</v>
+        <v>0.07965422720291924</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1102558377655281</v>
+        <v>0.1106804618096244</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>180</v>
@@ -2979,19 +2979,19 @@
         <v>134791</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>117313</v>
+        <v>116731</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>154405</v>
+        <v>154455</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09078987159523888</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0790170994259763</v>
+        <v>0.07862510864807198</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1040009262575758</v>
+        <v>0.1040345203745635</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>330</v>
@@ -3000,19 +3000,19 @@
         <v>314129</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>281283</v>
+        <v>281775</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>351936</v>
+        <v>350743</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.09278952865514953</v>
+        <v>0.09278952865514954</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0830872094304609</v>
+        <v>0.08323242391694635</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1039571832203409</v>
+        <v>0.1036047181263482</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>98896</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77937</v>
+        <v>79781</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>121644</v>
+        <v>125252</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.05203001755240127</v>
+        <v>0.05203001755240128</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04100313737474107</v>
+        <v>0.04197344464987476</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06399826226013243</v>
+        <v>0.06589632510573659</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>127</v>
@@ -3050,19 +3050,19 @@
         <v>103262</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>87271</v>
+        <v>86483</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>124391</v>
+        <v>122951</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06955272169481619</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05878232604573256</v>
+        <v>0.05825115742108333</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08378442931293423</v>
+        <v>0.08281434111454243</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>214</v>
@@ -3071,19 +3071,19 @@
         <v>202157</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>175820</v>
+        <v>174875</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>231888</v>
+        <v>230717</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05971452833663229</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0519347402841655</v>
+        <v>0.05165567683017001</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06849662866401517</v>
+        <v>0.06815071753948343</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>58747</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>43189</v>
+        <v>42139</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>76770</v>
+        <v>77743</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03090728406949038</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02272201981432023</v>
+        <v>0.02216965799330931</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0403893007156469</v>
+        <v>0.04090153838300489</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>50</v>
@@ -3121,19 +3121,19 @@
         <v>38111</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28468</v>
+        <v>29846</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>49613</v>
+        <v>52834</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02567015252789239</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01917479079077367</v>
+        <v>0.02010316230241234</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03341701822560212</v>
+        <v>0.03558675247352693</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>99</v>
@@ -3142,19 +3142,19 @@
         <v>96858</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>77775</v>
+        <v>79374</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>118718</v>
+        <v>121080</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0286105612872783</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02297371618405721</v>
+        <v>0.02344602989267225</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03506780245907389</v>
+        <v>0.03576522866432329</v>
       </c>
     </row>
     <row r="38">
